--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A1D683-FE3D-4797-87ED-EEB4A670AFDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E72E57-0CE0-424E-8BE4-232AFF0B77F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Status</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Digital Watch - Questionaire</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Requirement ID</t>
   </si>
   <si>
@@ -70,13 +67,147 @@
   </si>
   <si>
     <t>Answered</t>
+  </si>
+  <si>
+    <t>Asked by</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_01</t>
+  </si>
+  <si>
+    <t>What display device should be used? (LCD or 7SEG)</t>
+  </si>
+  <si>
+    <t>Proposed by</t>
+  </si>
+  <si>
+    <t>LCD for easier control</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>23/1/2020</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_F_01</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_KE_02</t>
+  </si>
+  <si>
+    <t>Bassem</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_02</t>
+  </si>
+  <si>
+    <t>More details about how to switch between features?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_KE_01</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_03</t>
+  </si>
+  <si>
+    <t>24/1/2020</t>
+  </si>
+  <si>
+    <t>What the size of the final prduct?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_04</t>
+  </si>
+  <si>
+    <t>What is the exact function of the 3 buttons in Alarm &amp; Normal Clock modes?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Normal Clock: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter/Exit Adjust mode, Adjust hours, Adjust minutes  -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2. Alarm:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adjust hours, Adjust minutes, Set Alarm, (Stop Alarm?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Should we use Real Time Clock?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_05</t>
+  </si>
+  <si>
+    <t>What about the power supply battery or Adaptor?</t>
+  </si>
+  <si>
+    <t>Battery for portability</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_06</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_07</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_F_03</t>
+  </si>
+  <si>
+    <t>Another button :D</t>
+  </si>
+  <si>
+    <t>What is the top limit of the stop watch?</t>
+  </si>
+  <si>
+    <t>59min:59sec (to be displayed with the same size as other modes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +242,14 @@
       <b/>
       <sz val="16"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,46 +349,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -263,7 +426,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -278,7 +441,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -293,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -308,7 +471,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -323,7 +486,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -338,7 +520,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -353,7 +535,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -368,7 +550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -383,7 +565,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -398,28 +580,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,17 +601,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H37" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Requirement ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Author" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="SIQ ID" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Question" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Proposed Answer" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Answer" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:I38" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Requirement ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Asked by" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="SIQ ID" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Question" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Proposed Answer" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{8B63DE77-FD4F-4409-86CF-5BE67B08E70D}" name="Proposed by" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Date" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Answer" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,155 +915,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="25.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="30.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="45.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="L5" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="L6" s="12"/>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="6"/>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7"/>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G85">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Problems">
-      <formula>NOT(ISERROR(SEARCH("Problems",G4)))</formula>
+  <conditionalFormatting sqref="H4:H86">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Problems">
+      <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="2" operator="beginsWith" text="Answered">
-      <formula>LEFT(G4,LEN("Answered"))="Answered"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Answered">
+      <formula>LEFT(H4,LEN("Answered"))="Answered"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="3" operator="beginsWith" text="Not">
-      <formula>LEFT(G4,LEN("Not"))="Not"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="Not">
+      <formula>LEFT(H4,LEN("Not"))="Not"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="G4:G37" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
-      <formula1>$J$3:$J$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
+      <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E72E57-0CE0-424E-8BE4-232AFF0B77F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2C9B5-C1E1-49CB-8249-132CBE846260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>More details about how to switch between features?</t>
   </si>
   <si>
-    <t>PO3_DGW_CRS_KE_01</t>
-  </si>
-  <si>
     <t>PO3_DGW_SIQ_03</t>
   </si>
   <si>
@@ -124,6 +121,43 @@
   </si>
   <si>
     <t>What is the exact function of the 3 buttons in Alarm &amp; Normal Clock modes?</t>
+  </si>
+  <si>
+    <t>Should we use Real Time Clock?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_05</t>
+  </si>
+  <si>
+    <t>What about the power supply battery or Adaptor?</t>
+  </si>
+  <si>
+    <t>Battery for portability</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_06</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_07</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_F_03</t>
+  </si>
+  <si>
+    <t>Another button :D</t>
+  </si>
+  <si>
+    <t>What is the top limit of the stop watch?</t>
+  </si>
+  <si>
+    <t>59min:59sec (to be displayed with the same size as other modes)</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_KE_01
+PO3_DGW_CRS_KE_03</t>
   </si>
   <si>
     <r>
@@ -166,48 +200,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Adjust hours, Adjust minutes, Set Alarm, (Stop Alarm?)</t>
+      <t xml:space="preserve"> Adjust hours, Adjust minutes, Set Alarm,</t>
     </r>
-  </si>
-  <si>
-    <t>Should we use Real Time Clock?</t>
-  </si>
-  <si>
-    <t>PO3_DGW_SIQ_05</t>
-  </si>
-  <si>
-    <t>What about the power supply battery or Adaptor?</t>
-  </si>
-  <si>
-    <t>Battery for portability</t>
-  </si>
-  <si>
-    <t>PO3_DGW_SIQ_06</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>PO3_DGW_SIQ_07</t>
-  </si>
-  <si>
-    <t>PO3_DGW_CRS_F_03</t>
-  </si>
-  <si>
-    <t>Another button :D</t>
-  </si>
-  <si>
-    <t>What is the top limit of the stop watch?</t>
-  </si>
-  <si>
-    <t>59min:59sec (to be displayed with the same size as other modes)</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Stop Alarm?)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +260,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -354,26 +374,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,62 +389,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -581,6 +550,57 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,18 +621,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I38" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Requirement ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Asked by" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="SIQ ID" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Question" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Proposed Answer" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{8B63DE77-FD4F-4409-86CF-5BE67B08E70D}" name="Proposed by" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Date" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Answer" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Requirement ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Asked by" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Question" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Proposed Answer" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8B63DE77-FD4F-4409-86CF-5BE67B08E70D}" name="Proposed by" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,49 +938,49 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="30.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="45.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="3" width="25.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="45.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -988,8 +1008,8 @@
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1018,15 +1038,15 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -1035,25 +1055,25 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1063,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -1080,21 +1100,21 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="L6" s="12"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -1102,9 +1122,9 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1114,10 +1134,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -1125,25 +1145,25 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -1154,25 +1174,25 @@
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -1218,13 +1238,13 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H86">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Problems">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Answered">
+    <cfRule type="beginsWith" dxfId="12" priority="2" operator="beginsWith" text="Answered">
       <formula>LEFT(H4,LEN("Answered"))="Answered"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="Not">
+    <cfRule type="beginsWith" dxfId="11" priority="3" operator="beginsWith" text="Not">
       <formula>LEFT(H4,LEN("Not"))="Not"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsharaby\Documents\GitHub\DWTCH_Mariam\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2C9B5-C1E1-49CB-8249-132CBE846260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Status</t>
   </si>
@@ -214,11 +213,42 @@
       <t xml:space="preserve"> (Stop Alarm?)</t>
     </r>
   </si>
+  <si>
+    <t>TSH: 24/1/2020 : I agree with LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH: 24/1/2020 : You can use the 3 buttons as follows:
+For Watch and Alarms modes 
+1- Button 1: Mode change "Watch , Alarm , stop watch"
+2-Button 2 : Adjust/Select for hours minutes 
+3- Button 3 : Up increment to set the hours or minutes
+For Stop watch the change in :
+- Button 2 : will be used to start and pause the stop watch 
+- Button 3 : used to reset the stop watch 
+You can off the alarm by Up increment if the alarm is on </t>
+  </si>
+  <si>
+    <t>TSH:24/01/2020 : please refer to above answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH: 24/01/2020 : I don’t have problem with the size as it will fit with LCD and so on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH:24/01/2020: I want to be accurate but what is easy for SW to use RTC , or just use internal timer , chose what is to be done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH:24/01/2020 : I would prefer battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH:24/01/2020 : 100 H
+The stop watch will be like this 00:00:00
+When you leave the stop watch just reset it </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,6 +437,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +455,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -437,7 +469,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -452,7 +483,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -471,7 +501,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -486,7 +515,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -501,7 +529,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -516,7 +543,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -531,7 +557,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -546,7 +571,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -561,7 +585,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -576,7 +599,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -621,18 +643,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I38" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I38"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Requirement ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Asked by" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Question" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Proposed Answer" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{8B63DE77-FD4F-4409-86CF-5BE67B08E70D}" name="Proposed by" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Answer" dataDxfId="0"/>
+    <tableColumn id="1" name="Requirement ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Asked by" dataDxfId="7"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="4" name="Question" dataDxfId="5"/>
+    <tableColumn id="5" name="Proposed Answer" dataDxfId="4"/>
+    <tableColumn id="11" name="Proposed by" dataDxfId="3"/>
+    <tableColumn id="6" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -948,7 +970,7 @@
     <col min="5" max="6" width="30.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.77734375" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="53" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
@@ -1038,6 +1060,9 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I4" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
         <v>1</v>
@@ -1069,6 +1094,9 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
         <v>11</v>
@@ -1099,6 +1127,9 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="5"/>
       <c r="L6" s="6"/>
@@ -1121,6 +1152,9 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
@@ -1145,6 +1179,9 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1174,6 +1211,9 @@
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1202,6 +1242,9 @@
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1292,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsharaby\Documents\GitHub\DWTCH_Mariam\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC69F5-F65F-43C4-BFED-4E83A0DE3952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -248,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,6 +414,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -436,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,18 +638,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Requirement ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Asked by" dataDxfId="7"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="4" name="Question" dataDxfId="5"/>
-    <tableColumn id="5" name="Proposed Answer" dataDxfId="4"/>
-    <tableColumn id="11" name="Proposed by" dataDxfId="3"/>
-    <tableColumn id="6" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" name="Answer" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requirement ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Asked by" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Question" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Proposed Answer" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Proposed by" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -977,30 +972,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1058,9 +1053,9 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="5"/>
@@ -1092,9 +1087,9 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="5"/>
@@ -1126,9 +1121,9 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="5"/>
@@ -1151,9 +1146,9 @@
         <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="5"/>
@@ -1177,7 +1172,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>47</v>
@@ -1209,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>48</v>
@@ -1241,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>49</v>
@@ -1292,7 +1287,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC69F5-F65F-43C4-BFED-4E83A0DE3952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B4948-C4B5-41AD-9A88-8BE8BBD13B29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Status</t>
   </si>
@@ -239,12 +239,126 @@
 The stop watch will be like this 00:00:00
 When you leave the stop watch just reset it </t>
   </si>
+  <si>
+    <t>PO3_DGW_SIQ_08</t>
+  </si>
+  <si>
+    <t>Change mode, don't save adjustments</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>If MODE button is pressed during time adjust or alarm adjust, does it:
+1. Change mode without saving.
+2. Change mode with saving.
+3. Stay in the same mode without saving (Cancel). 
+4. Stay in the same mode without saving?</t>
+  </si>
+  <si>
+    <t>What is displayed on LCD in Alarm mode?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current time, until alarm time is reached </t>
+  </si>
+  <si>
+    <t>If Alarm time is adjusted, and mode is changed to display time or stopwatch, does it still trigger buzzer if alarm time is reached?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_09</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_10</t>
+  </si>
+  <si>
+    <t>If alarm is working in all modes, How can we set alarm to infinity? (Never trigger a buzzer)</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_11</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_12</t>
+  </si>
+  <si>
+    <t>What are the initial states for current time, alarm time?</t>
+  </si>
+  <si>
+    <t>Set to a time that's not valid (e.g: 00:00:00)</t>
+  </si>
+  <si>
+    <t>Current time: 12:00:00 AM
+Alarm time: infinity (e.g: 00:00:00)</t>
+  </si>
+  <si>
+    <t>What are the limits for incrementing in adjust mode (for both: current time and alarm)? What happens if we increment to a boundary value?</t>
+  </si>
+  <si>
+    <t>PO3_DGW_SIQ_13</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_F_02</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_F_01
+PO3_DGW_CRS_F_02</t>
+  </si>
+  <si>
+    <t>PO3_DGW_CRS_KE_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hours -&gt; 1:12 (reset to 1)
+Minutes -&gt; 0:59 (reset to 0)
+keep AM/PM as they were if hours are incremented above boundary value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alarm: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same, but add an option for infinity</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +409,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -954,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1242,12 +1362,156 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="17" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1275,6 +1539,7 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H4:H86">
     <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Ibrahim\Documents\hola\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B4948-C4B5-41AD-9A88-8BE8BBD13B29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Status</t>
   </si>
@@ -353,11 +352,23 @@
       <t>Same, but add an option for infinity</t>
     </r>
   </si>
+  <si>
+    <t>PO3_DGW_SIQ_14</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>22/2/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to do when alarm is reached when mode is in another mode </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,18 +769,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I38"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requirement ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Asked by" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Question" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Proposed Answer" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Proposed by" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Answer" dataDxfId="0"/>
+    <tableColumn id="1" name="Requirement ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Asked by" dataDxfId="7"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="4" name="Question" dataDxfId="5"/>
+    <tableColumn id="5" name="Proposed Answer" dataDxfId="4"/>
+    <tableColumn id="11" name="Proposed by" dataDxfId="3"/>
+    <tableColumn id="6" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1071,27 +1082,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1115,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1128,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1195,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1218,7 +1229,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1260,7 @@
       <c r="J6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1286,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1312,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1344,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1362,7 +1373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1414,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1512,28 +1523,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:I2"/>
@@ -1552,7 +1582,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Ibrahim\Documents\hola\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005925BB-5A4D-45D1-A3CB-9D64EF7F2C87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -261,9 +262,6 @@
     <t xml:space="preserve">Current time, until alarm time is reached </t>
   </si>
   <si>
-    <t>If Alarm time is adjusted, and mode is changed to display time or stopwatch, does it still trigger buzzer if alarm time is reached?</t>
-  </si>
-  <si>
     <t>PO3_DGW_SIQ_09</t>
   </si>
   <si>
@@ -362,13 +360,16 @@
     <t>22/2/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">What to do when alarm is reached when mode is in another mode </t>
+    <t>What to do when alarm is reached if mode is in another mode?</t>
+  </si>
+  <si>
+    <t>If user doesn't stop alarm manually, for how long does it keep ringing?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,164 +573,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -750,6 +593,164 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -769,18 +770,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:I37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:I37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Requirement ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Asked by" dataDxfId="7"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="4" name="Question" dataDxfId="5"/>
-    <tableColumn id="5" name="Proposed Answer" dataDxfId="4"/>
-    <tableColumn id="11" name="Proposed by" dataDxfId="3"/>
-    <tableColumn id="6" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" name="Answer" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requirement ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Asked by" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SIQ ID" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Question" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Proposed Answer" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Proposed by" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Answer" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,27 +1083,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="25.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1116,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1260,7 +1261,7 @@
       <c r="J6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1287,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1313,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1344,7 +1345,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,15 +1400,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
@@ -1425,41 +1426,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>18</v>
@@ -1471,21 +1472,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -1497,21 +1498,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
@@ -1523,66 +1524,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:8" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H4:H86">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
+  <conditionalFormatting sqref="H4:H85">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="2" operator="beginsWith" text="Answered">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Answered">
       <formula>LEFT(H4,LEN("Answered"))="Answered"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="3" operator="beginsWith" text="Not">
+    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="Not">
       <formula>LEFT(H4,LEN("Not"))="Not"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIMS\Documents\GitHub\DGW_Mariam\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005925BB-5A4D-45D1-A3CB-9D64EF7F2C87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="82">
   <si>
     <t>Status</t>
   </si>
@@ -365,11 +364,32 @@
   <si>
     <t>If user doesn't stop alarm manually, for how long does it keep ringing?</t>
   </si>
+  <si>
+    <t xml:space="preserve">TSH : after you agjust an press the mode you should save and back to watch mode </t>
+  </si>
+  <si>
+    <t>TSH : when you enter alarm you just adjust the alarm then after finish you go back to normal watch then when alarm time comes you alert the user as normal watch do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH: you should stop the alarm even after certain time if no button pressed could be 30 sec or press increment button </t>
+  </si>
+  <si>
+    <t>TSH : don't get the question ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH : the default is 12 and alaramed disabeld </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH : just like normal watch do , when increment the hours and you are 12 then will be 1 , nut if you can adjut the PM/AM then just increment the hour and don't togle the PM/AM as we adjust it seperately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH : 30 sec </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,6 +593,164 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -593,164 +771,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -770,18 +790,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:I37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A3:I37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I37"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requirement ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Asked by" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SIQ ID" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Question" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Proposed Answer" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Proposed by" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Answer" dataDxfId="3"/>
+    <tableColumn id="1" name="Requirement ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Asked by" dataDxfId="7"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="4" name="Question" dataDxfId="5"/>
+    <tableColumn id="5" name="Proposed Answer" dataDxfId="4"/>
+    <tableColumn id="11" name="Proposed by" dataDxfId="3"/>
+    <tableColumn id="6" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" name="Answer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,27 +1103,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1136,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1149,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1216,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1230,7 +1250,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1281,7 @@
       <c r="J6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1307,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1313,7 +1333,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1365,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1374,7 +1394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,8 +1419,11 @@
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1425,8 +1448,11 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1445,8 +1471,11 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1471,8 +1500,11 @@
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1497,8 +1529,11 @@
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -1523,8 +1558,11 @@
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1543,27 +1581,30 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:I2"/>
@@ -1571,18 +1612,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H4:H85">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Problems">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Answered">
+    <cfRule type="beginsWith" dxfId="12" priority="2" operator="beginsWith" text="Answered">
       <formula>LEFT(H4,LEN("Answered"))="Answered"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="Not">
+    <cfRule type="beginsWith" dxfId="11" priority="3" operator="beginsWith" text="Not">
       <formula>LEFT(H4,LEN("Not"))="Not"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H37">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/PO3_DGW_SIQ.xlsx
+++ b/Input Documents/PO3_DGW_SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIMS\Documents\GitHub\DGW_Mariam\Input Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amr Ibrahim\Music\HOLA28\Input Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Status</t>
   </si>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>75</v>
@@ -1446,7 +1446,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>76</v>
@@ -1469,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>77</v>
@@ -1498,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>78</v>
@@ -1527,7 +1527,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>79</v>
@@ -1556,7 +1556,7 @@
         <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>80</v>
@@ -1579,7 +1579,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>81</v>
